--- a/FlatRatesComplete.xlsx
+++ b/FlatRatesComplete.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="465" windowWidth="27795" windowHeight="11820"/>
+    <workbookView xWindow="3345" yWindow="570" windowWidth="27795" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="FLAT RATE 2018" sheetId="1" r:id="rId1"/>
@@ -4788,7 +4788,7 @@
   <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11752,8 +11752,8 @@
   </sheetPr>
   <dimension ref="A2:X60"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
